--- a/Figure5/Top14SubvariantHeatmap_forMADcalc_v25data.xlsx
+++ b/Figure5/Top14SubvariantHeatmap_forMADcalc_v25data.xlsx
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -2257,10 +2257,10 @@
         <v>12</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -2271,10 +2271,10 @@
         <v>12</v>
       </c>
       <c r="C133" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D133" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -2285,10 +2285,10 @@
         <v>12</v>
       </c>
       <c r="C134" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D134" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135">
@@ -2302,7 +2302,7 @@
         <v>10</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136">
@@ -2313,10 +2313,10 @@
         <v>12</v>
       </c>
       <c r="C136" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D136" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -2327,10 +2327,10 @@
         <v>12</v>
       </c>
       <c r="C137" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D137" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138">
@@ -2341,10 +2341,10 @@
         <v>12</v>
       </c>
       <c r="C138" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D138" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139">
@@ -2355,10 +2355,10 @@
         <v>12</v>
       </c>
       <c r="C139" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D139" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140">
@@ -2369,10 +2369,10 @@
         <v>12</v>
       </c>
       <c r="C140" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D140" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141">
@@ -2383,10 +2383,10 @@
         <v>12</v>
       </c>
       <c r="C141" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D141" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142">
@@ -2397,24 +2397,24 @@
         <v>12</v>
       </c>
       <c r="C142" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D142" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144">
@@ -2425,7 +2425,7 @@
         <v>14</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -2439,7 +2439,7 @@
         <v>14</v>
       </c>
       <c r="C145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -2453,7 +2453,7 @@
         <v>14</v>
       </c>
       <c r="C146" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -2467,10 +2467,10 @@
         <v>14</v>
       </c>
       <c r="C147" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -2481,7 +2481,7 @@
         <v>14</v>
       </c>
       <c r="C148" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D148" t="n">
         <v>2</v>
@@ -2495,10 +2495,10 @@
         <v>14</v>
       </c>
       <c r="C149" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D149" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -2509,10 +2509,10 @@
         <v>14</v>
       </c>
       <c r="C150" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D150" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151">
@@ -2523,10 +2523,10 @@
         <v>14</v>
       </c>
       <c r="C151" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D151" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152">
@@ -2537,10 +2537,10 @@
         <v>14</v>
       </c>
       <c r="C152" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153">
@@ -2551,7 +2551,7 @@
         <v>14</v>
       </c>
       <c r="C153" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         <v>14</v>
       </c>
       <c r="C154" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -2579,10 +2579,10 @@
         <v>14</v>
       </c>
       <c r="C155" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -2593,7 +2593,7 @@
         <v>14</v>
       </c>
       <c r="C156" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D156" t="n">
         <v>2</v>
@@ -2607,7 +2607,7 @@
         <v>14</v>
       </c>
       <c r="C157" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D157" t="n">
         <v>2</v>
@@ -2621,10 +2621,10 @@
         <v>14</v>
       </c>
       <c r="C158" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -2635,7 +2635,7 @@
         <v>14</v>
       </c>
       <c r="C159" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D159" t="n">
         <v>1</v>
@@ -2649,7 +2649,7 @@
         <v>14</v>
       </c>
       <c r="C160" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
@@ -2663,7 +2663,7 @@
         <v>14</v>
       </c>
       <c r="C161" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D161" t="n">
         <v>1</v>
@@ -2671,16 +2671,16 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B162" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D162" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2691,10 +2691,10 @@
         <v>16</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164">
@@ -2705,10 +2705,10 @@
         <v>16</v>
       </c>
       <c r="C164" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165">
@@ -2719,10 +2719,10 @@
         <v>16</v>
       </c>
       <c r="C165" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D165" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2733,10 +2733,10 @@
         <v>16</v>
       </c>
       <c r="C166" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167">
@@ -2747,10 +2747,10 @@
         <v>16</v>
       </c>
       <c r="C167" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D167" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2761,7 +2761,7 @@
         <v>16</v>
       </c>
       <c r="C168" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D168" t="n">
         <v>3</v>
@@ -2775,10 +2775,10 @@
         <v>16</v>
       </c>
       <c r="C169" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170">
@@ -2789,10 +2789,10 @@
         <v>16</v>
       </c>
       <c r="C170" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D170" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -2803,10 +2803,10 @@
         <v>16</v>
       </c>
       <c r="C171" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D171" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172">
@@ -2817,10 +2817,10 @@
         <v>16</v>
       </c>
       <c r="C172" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D172" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173">
@@ -2831,10 +2831,10 @@
         <v>16</v>
       </c>
       <c r="C173" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174">
@@ -2845,10 +2845,10 @@
         <v>16</v>
       </c>
       <c r="C174" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D174" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2859,10 +2859,10 @@
         <v>16</v>
       </c>
       <c r="C175" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D175" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176">
@@ -2873,10 +2873,10 @@
         <v>16</v>
       </c>
       <c r="C176" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -2887,7 +2887,7 @@
         <v>16</v>
       </c>
       <c r="C177" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D177" t="n">
         <v>1</v>
@@ -2901,7 +2901,7 @@
         <v>16</v>
       </c>
       <c r="C178" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D178" t="n">
         <v>1</v>
@@ -2915,7 +2915,7 @@
         <v>16</v>
       </c>
       <c r="C179" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D179" t="n">
         <v>1</v>
@@ -2929,7 +2929,7 @@
         <v>16</v>
       </c>
       <c r="C180" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D180" t="n">
         <v>1</v>
@@ -2943,7 +2943,7 @@
         <v>16</v>
       </c>
       <c r="C181" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D181" t="n">
         <v>1</v>
@@ -2957,10 +2957,10 @@
         <v>16</v>
       </c>
       <c r="C182" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D182" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2971,10 +2971,10 @@
         <v>16</v>
       </c>
       <c r="C183" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184">
@@ -2985,10 +2985,10 @@
         <v>16</v>
       </c>
       <c r="C184" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2999,10 +2999,10 @@
         <v>16</v>
       </c>
       <c r="C185" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -3013,10 +3013,10 @@
         <v>16</v>
       </c>
       <c r="C186" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D186" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -3024,13 +3024,13 @@
         <v>15</v>
       </c>
       <c r="B187" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D187" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188">
@@ -3041,10 +3041,10 @@
         <v>17</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -3055,7 +3055,7 @@
         <v>17</v>
       </c>
       <c r="C189" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         <v>17</v>
       </c>
       <c r="C190" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D190" t="n">
         <v>1</v>
@@ -3083,10 +3083,10 @@
         <v>17</v>
       </c>
       <c r="C191" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D191" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -3097,10 +3097,10 @@
         <v>17</v>
       </c>
       <c r="C192" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D192" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193">
@@ -3111,7 +3111,7 @@
         <v>17</v>
       </c>
       <c r="C193" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D193" t="n">
         <v>2</v>
@@ -3125,10 +3125,10 @@
         <v>17</v>
       </c>
       <c r="C194" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -3139,10 +3139,10 @@
         <v>17</v>
       </c>
       <c r="C195" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D195" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -3153,10 +3153,10 @@
         <v>17</v>
       </c>
       <c r="C196" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D196" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197">
@@ -3167,10 +3167,10 @@
         <v>17</v>
       </c>
       <c r="C197" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -3181,10 +3181,10 @@
         <v>17</v>
       </c>
       <c r="C198" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -3195,7 +3195,7 @@
         <v>17</v>
       </c>
       <c r="C199" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D199" t="n">
         <v>2</v>
@@ -3209,10 +3209,10 @@
         <v>17</v>
       </c>
       <c r="C200" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -3223,7 +3223,7 @@
         <v>17</v>
       </c>
       <c r="C201" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D201" t="n">
         <v>1</v>
@@ -3237,7 +3237,7 @@
         <v>17</v>
       </c>
       <c r="C202" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D202" t="n">
         <v>1</v>
@@ -3251,10 +3251,10 @@
         <v>17</v>
       </c>
       <c r="C203" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D203" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -3265,10 +3265,10 @@
         <v>17</v>
       </c>
       <c r="C204" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D204" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205">
@@ -3279,10 +3279,10 @@
         <v>17</v>
       </c>
       <c r="C205" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -3293,7 +3293,7 @@
         <v>17</v>
       </c>
       <c r="C206" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D206" t="n">
         <v>1</v>
@@ -3307,7 +3307,7 @@
         <v>17</v>
       </c>
       <c r="C207" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D207" t="n">
         <v>1</v>
@@ -3321,10 +3321,10 @@
         <v>17</v>
       </c>
       <c r="C208" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D208" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -3335,10 +3335,10 @@
         <v>17</v>
       </c>
       <c r="C209" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D209" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210">
@@ -3349,10 +3349,10 @@
         <v>17</v>
       </c>
       <c r="C210" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D210" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
@@ -3363,10 +3363,10 @@
         <v>17</v>
       </c>
       <c r="C211" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D211" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212">
@@ -3377,7 +3377,7 @@
         <v>17</v>
       </c>
       <c r="C212" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D212" t="n">
         <v>4</v>
@@ -3391,10 +3391,10 @@
         <v>17</v>
       </c>
       <c r="C213" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D213" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214">
@@ -3405,10 +3405,10 @@
         <v>17</v>
       </c>
       <c r="C214" t="n">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215">
@@ -3419,7 +3419,7 @@
         <v>17</v>
       </c>
       <c r="C215" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D215" t="n">
         <v>1</v>
@@ -3433,7 +3433,7 @@
         <v>17</v>
       </c>
       <c r="C216" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D216" t="n">
         <v>1</v>
@@ -3447,7 +3447,7 @@
         <v>17</v>
       </c>
       <c r="C217" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D217" t="n">
         <v>1</v>
@@ -3461,7 +3461,7 @@
         <v>17</v>
       </c>
       <c r="C218" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D218" t="n">
         <v>1</v>
@@ -3475,7 +3475,7 @@
         <v>17</v>
       </c>
       <c r="C219" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D219" t="n">
         <v>1</v>
@@ -3489,7 +3489,7 @@
         <v>17</v>
       </c>
       <c r="C220" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D220" t="n">
         <v>1</v>
@@ -3503,10 +3503,10 @@
         <v>17</v>
       </c>
       <c r="C221" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D221" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -3517,10 +3517,10 @@
         <v>17</v>
       </c>
       <c r="C222" t="n">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D222" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223">
@@ -3531,10 +3531,10 @@
         <v>17</v>
       </c>
       <c r="C223" t="n">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D223" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="C224" t="n">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D224" t="n">
         <v>3</v>
@@ -3559,10 +3559,10 @@
         <v>17</v>
       </c>
       <c r="C225" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D225" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226">
@@ -3573,10 +3573,10 @@
         <v>17</v>
       </c>
       <c r="C226" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D226" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -3587,10 +3587,10 @@
         <v>17</v>
       </c>
       <c r="C227" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D227" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -3601,7 +3601,7 @@
         <v>17</v>
       </c>
       <c r="C228" t="n">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D228" t="n">
         <v>1</v>
@@ -3615,7 +3615,7 @@
         <v>17</v>
       </c>
       <c r="C229" t="n">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D229" t="n">
         <v>1</v>
@@ -3629,7 +3629,7 @@
         <v>17</v>
       </c>
       <c r="C230" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D230" t="n">
         <v>1</v>
@@ -3643,7 +3643,7 @@
         <v>17</v>
       </c>
       <c r="C231" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D231" t="n">
         <v>1</v>
@@ -3657,10 +3657,10 @@
         <v>17</v>
       </c>
       <c r="C232" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D232" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -3671,10 +3671,10 @@
         <v>17</v>
       </c>
       <c r="C233" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D233" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="C234" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D234" t="n">
         <v>1</v>
@@ -3699,10 +3699,10 @@
         <v>17</v>
       </c>
       <c r="C235" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D235" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -3713,10 +3713,10 @@
         <v>17</v>
       </c>
       <c r="C236" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D236" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237">
@@ -3724,13 +3724,13 @@
         <v>15</v>
       </c>
       <c r="B237" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="D237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -3741,10 +3741,10 @@
         <v>18</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -3755,7 +3755,7 @@
         <v>18</v>
       </c>
       <c r="C239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239" t="n">
         <v>2</v>
@@ -3769,10 +3769,10 @@
         <v>18</v>
       </c>
       <c r="C240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -3783,7 +3783,7 @@
         <v>18</v>
       </c>
       <c r="C241" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D241" t="n">
         <v>1</v>
@@ -3797,7 +3797,7 @@
         <v>18</v>
       </c>
       <c r="C242" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D242" t="n">
         <v>1</v>
@@ -3811,10 +3811,10 @@
         <v>18</v>
       </c>
       <c r="C243" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D243" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -3825,10 +3825,10 @@
         <v>18</v>
       </c>
       <c r="C244" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D244" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245">
@@ -3839,10 +3839,10 @@
         <v>18</v>
       </c>
       <c r="C245" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -3853,10 +3853,10 @@
         <v>18</v>
       </c>
       <c r="C246" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
@@ -3867,10 +3867,10 @@
         <v>18</v>
       </c>
       <c r="C247" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -3881,7 +3881,7 @@
         <v>18</v>
       </c>
       <c r="C248" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D248" t="n">
         <v>2</v>
@@ -3895,10 +3895,10 @@
         <v>18</v>
       </c>
       <c r="C249" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
@@ -3909,10 +3909,10 @@
         <v>18</v>
       </c>
       <c r="C250" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D250" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251">
@@ -3923,7 +3923,7 @@
         <v>18</v>
       </c>
       <c r="C251" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D251" t="n">
         <v>1</v>
@@ -3937,10 +3937,10 @@
         <v>18</v>
       </c>
       <c r="C252" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -3951,10 +3951,10 @@
         <v>18</v>
       </c>
       <c r="C253" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254">
@@ -3965,7 +3965,7 @@
         <v>18</v>
       </c>
       <c r="C254" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D254" t="n">
         <v>3</v>
@@ -3979,10 +3979,10 @@
         <v>18</v>
       </c>
       <c r="C255" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D255" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256">
@@ -3993,10 +3993,10 @@
         <v>18</v>
       </c>
       <c r="C256" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D256" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257">
@@ -4007,10 +4007,10 @@
         <v>18</v>
       </c>
       <c r="C257" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D257" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258">
@@ -4021,10 +4021,10 @@
         <v>18</v>
       </c>
       <c r="C258" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D258" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259">
@@ -4035,10 +4035,10 @@
         <v>18</v>
       </c>
       <c r="C259" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D259" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260">
@@ -4049,10 +4049,10 @@
         <v>18</v>
       </c>
       <c r="C260" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D260" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261">
@@ -4063,10 +4063,10 @@
         <v>18</v>
       </c>
       <c r="C261" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D261" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262">
@@ -4077,10 +4077,10 @@
         <v>18</v>
       </c>
       <c r="C262" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -4091,10 +4091,10 @@
         <v>18</v>
       </c>
       <c r="C263" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D263" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264">
@@ -4105,10 +4105,10 @@
         <v>18</v>
       </c>
       <c r="C264" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D264" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265">
@@ -4119,10 +4119,10 @@
         <v>18</v>
       </c>
       <c r="C265" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D265" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -4133,10 +4133,10 @@
         <v>18</v>
       </c>
       <c r="C266" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D266" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267">
@@ -4147,10 +4147,10 @@
         <v>18</v>
       </c>
       <c r="C267" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D267" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268">
@@ -4161,10 +4161,10 @@
         <v>18</v>
       </c>
       <c r="C268" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D268" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269">
@@ -4175,10 +4175,10 @@
         <v>18</v>
       </c>
       <c r="C269" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -4189,7 +4189,7 @@
         <v>18</v>
       </c>
       <c r="C270" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D270" t="n">
         <v>2</v>
@@ -4203,10 +4203,10 @@
         <v>18</v>
       </c>
       <c r="C271" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D271" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272">
@@ -4217,10 +4217,10 @@
         <v>18</v>
       </c>
       <c r="C272" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D272" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273">
@@ -4231,10 +4231,10 @@
         <v>18</v>
       </c>
       <c r="C273" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D273" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -4245,10 +4245,10 @@
         <v>18</v>
       </c>
       <c r="C274" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D274" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275">
@@ -4259,10 +4259,10 @@
         <v>18</v>
       </c>
       <c r="C275" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D275" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="276">
@@ -4273,10 +4273,10 @@
         <v>18</v>
       </c>
       <c r="C276" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D276" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277">
@@ -4287,10 +4287,10 @@
         <v>18</v>
       </c>
       <c r="C277" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D277" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278">
@@ -4301,10 +4301,10 @@
         <v>18</v>
       </c>
       <c r="C278" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D278" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="279">
@@ -4315,10 +4315,10 @@
         <v>18</v>
       </c>
       <c r="C279" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D279" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280">
@@ -4329,10 +4329,10 @@
         <v>18</v>
       </c>
       <c r="C280" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D280" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -4343,10 +4343,10 @@
         <v>18</v>
       </c>
       <c r="C281" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D281" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="282">
@@ -4357,10 +4357,10 @@
         <v>18</v>
       </c>
       <c r="C282" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -4371,10 +4371,10 @@
         <v>18</v>
       </c>
       <c r="C283" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D283" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284">
@@ -4385,10 +4385,10 @@
         <v>18</v>
       </c>
       <c r="C284" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D284" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285">
@@ -4399,10 +4399,10 @@
         <v>18</v>
       </c>
       <c r="C285" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286">
@@ -4413,10 +4413,10 @@
         <v>18</v>
       </c>
       <c r="C286" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D286" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287">
@@ -4427,10 +4427,10 @@
         <v>18</v>
       </c>
       <c r="C287" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D287" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -4441,10 +4441,10 @@
         <v>18</v>
       </c>
       <c r="C288" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D288" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289">
@@ -4455,10 +4455,10 @@
         <v>18</v>
       </c>
       <c r="C289" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D289" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="290">
@@ -4469,10 +4469,10 @@
         <v>18</v>
       </c>
       <c r="C290" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D290" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -4483,7 +4483,7 @@
         <v>18</v>
       </c>
       <c r="C291" t="n">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D291" t="n">
         <v>3</v>
@@ -4497,10 +4497,10 @@
         <v>18</v>
       </c>
       <c r="C292" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D292" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293">
@@ -4511,7 +4511,7 @@
         <v>18</v>
       </c>
       <c r="C293" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D293" t="n">
         <v>1</v>
@@ -4525,10 +4525,10 @@
         <v>18</v>
       </c>
       <c r="C294" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D294" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -4539,10 +4539,10 @@
         <v>18</v>
       </c>
       <c r="C295" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D295" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296">
@@ -4553,10 +4553,10 @@
         <v>18</v>
       </c>
       <c r="C296" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297">
@@ -4567,10 +4567,10 @@
         <v>18</v>
       </c>
       <c r="C297" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D297" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -4581,10 +4581,10 @@
         <v>18</v>
       </c>
       <c r="C298" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D298" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -4595,10 +4595,10 @@
         <v>18</v>
       </c>
       <c r="C299" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D299" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300">
@@ -4609,10 +4609,10 @@
         <v>18</v>
       </c>
       <c r="C300" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D300" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301">
@@ -4623,10 +4623,10 @@
         <v>18</v>
       </c>
       <c r="C301" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D301" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="302">
@@ -4637,10 +4637,10 @@
         <v>18</v>
       </c>
       <c r="C302" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D302" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -4651,10 +4651,10 @@
         <v>18</v>
       </c>
       <c r="C303" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D303" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="304">
@@ -4665,10 +4665,10 @@
         <v>18</v>
       </c>
       <c r="C304" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -4679,10 +4679,10 @@
         <v>18</v>
       </c>
       <c r="C305" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306">
@@ -4693,10 +4693,10 @@
         <v>18</v>
       </c>
       <c r="C306" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D306" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307">
@@ -4707,7 +4707,7 @@
         <v>18</v>
       </c>
       <c r="C307" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D307" t="n">
         <v>1</v>
@@ -4721,7 +4721,7 @@
         <v>18</v>
       </c>
       <c r="C308" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D308" t="n">
         <v>1</v>
@@ -4735,7 +4735,7 @@
         <v>18</v>
       </c>
       <c r="C309" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D309" t="n">
         <v>1</v>
@@ -4749,10 +4749,10 @@
         <v>18</v>
       </c>
       <c r="C310" t="n">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -4763,10 +4763,10 @@
         <v>18</v>
       </c>
       <c r="C311" t="n">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -4777,7 +4777,7 @@
         <v>18</v>
       </c>
       <c r="C312" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D312" t="n">
         <v>1</v>
@@ -4788,10 +4788,10 @@
         <v>15</v>
       </c>
       <c r="B313" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D313" t="n">
         <v>1</v>
@@ -4805,7 +4805,7 @@
         <v>19</v>
       </c>
       <c r="C314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D314" t="n">
         <v>1</v>
@@ -4819,7 +4819,7 @@
         <v>19</v>
       </c>
       <c r="C315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D315" t="n">
         <v>1</v>
@@ -4833,7 +4833,7 @@
         <v>19</v>
       </c>
       <c r="C316" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D316" t="n">
         <v>1</v>
@@ -4847,7 +4847,7 @@
         <v>19</v>
       </c>
       <c r="C317" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D317" t="n">
         <v>1</v>
@@ -4861,7 +4861,7 @@
         <v>19</v>
       </c>
       <c r="C318" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D318" t="n">
         <v>1</v>
@@ -4875,10 +4875,10 @@
         <v>19</v>
       </c>
       <c r="C319" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D319" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -4889,10 +4889,10 @@
         <v>19</v>
       </c>
       <c r="C320" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D320" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -4903,7 +4903,7 @@
         <v>19</v>
       </c>
       <c r="C321" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D321" t="n">
         <v>2</v>
@@ -4917,7 +4917,7 @@
         <v>19</v>
       </c>
       <c r="C322" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D322" t="n">
         <v>2</v>
@@ -4931,7 +4931,7 @@
         <v>19</v>
       </c>
       <c r="C323" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D323" t="n">
         <v>2</v>
@@ -4945,10 +4945,10 @@
         <v>19</v>
       </c>
       <c r="C324" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -4959,7 +4959,7 @@
         <v>19</v>
       </c>
       <c r="C325" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D325" t="n">
         <v>1</v>
@@ -4973,10 +4973,10 @@
         <v>19</v>
       </c>
       <c r="C326" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D326" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -4987,10 +4987,10 @@
         <v>19</v>
       </c>
       <c r="C327" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D327" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -5001,10 +5001,10 @@
         <v>19</v>
       </c>
       <c r="C328" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D328" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="329">
@@ -5015,10 +5015,10 @@
         <v>19</v>
       </c>
       <c r="C329" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D329" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330">
@@ -5029,10 +5029,10 @@
         <v>19</v>
       </c>
       <c r="C330" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D330" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -5043,10 +5043,10 @@
         <v>19</v>
       </c>
       <c r="C331" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D331" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332">
@@ -5057,7 +5057,7 @@
         <v>19</v>
       </c>
       <c r="C332" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D332" t="n">
         <v>2</v>
@@ -5071,10 +5071,10 @@
         <v>19</v>
       </c>
       <c r="C333" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D333" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334">
@@ -5085,10 +5085,10 @@
         <v>19</v>
       </c>
       <c r="C334" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D334" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335">
@@ -5099,10 +5099,10 @@
         <v>19</v>
       </c>
       <c r="C335" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D335" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="336">
@@ -5113,10 +5113,10 @@
         <v>19</v>
       </c>
       <c r="C336" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -5127,10 +5127,10 @@
         <v>19</v>
       </c>
       <c r="C337" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338">
@@ -5141,10 +5141,10 @@
         <v>19</v>
       </c>
       <c r="C338" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -5155,10 +5155,10 @@
         <v>19</v>
       </c>
       <c r="C339" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340">
@@ -5169,7 +5169,7 @@
         <v>19</v>
       </c>
       <c r="C340" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D340" t="n">
         <v>1</v>
@@ -5183,7 +5183,7 @@
         <v>19</v>
       </c>
       <c r="C341" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D341" t="n">
         <v>1</v>
@@ -5197,7 +5197,7 @@
         <v>19</v>
       </c>
       <c r="C342" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D342" t="n">
         <v>1</v>
@@ -5211,10 +5211,10 @@
         <v>19</v>
       </c>
       <c r="C343" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D343" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -5225,10 +5225,10 @@
         <v>19</v>
       </c>
       <c r="C344" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D344" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345">
@@ -5239,10 +5239,10 @@
         <v>19</v>
       </c>
       <c r="C345" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D345" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -5253,10 +5253,10 @@
         <v>19</v>
       </c>
       <c r="C346" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D346" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="347">
@@ -5267,7 +5267,7 @@
         <v>19</v>
       </c>
       <c r="C347" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D347" t="n">
         <v>1</v>
@@ -5281,7 +5281,7 @@
         <v>19</v>
       </c>
       <c r="C348" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D348" t="n">
         <v>1</v>
@@ -5295,7 +5295,7 @@
         <v>19</v>
       </c>
       <c r="C349" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D349" t="n">
         <v>1</v>
@@ -5309,7 +5309,7 @@
         <v>19</v>
       </c>
       <c r="C350" t="n">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D350" t="n">
         <v>1</v>
@@ -5320,10 +5320,10 @@
         <v>15</v>
       </c>
       <c r="B351" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="D351" t="n">
         <v>1</v>
@@ -5337,10 +5337,10 @@
         <v>20</v>
       </c>
       <c r="C352" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -5351,10 +5351,10 @@
         <v>20</v>
       </c>
       <c r="C353" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D353" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354">
@@ -5365,7 +5365,7 @@
         <v>20</v>
       </c>
       <c r="C354" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D354" t="n">
         <v>4</v>
@@ -5379,10 +5379,10 @@
         <v>20</v>
       </c>
       <c r="C355" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D355" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356">
@@ -5393,7 +5393,7 @@
         <v>20</v>
       </c>
       <c r="C356" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D356" t="n">
         <v>7</v>
@@ -5407,10 +5407,10 @@
         <v>20</v>
       </c>
       <c r="C357" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D357" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="358">
@@ -5421,10 +5421,10 @@
         <v>20</v>
       </c>
       <c r="C358" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D358" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -5435,7 +5435,7 @@
         <v>20</v>
       </c>
       <c r="C359" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D359" t="n">
         <v>1</v>
@@ -5449,7 +5449,7 @@
         <v>20</v>
       </c>
       <c r="C360" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D360" t="n">
         <v>1</v>
@@ -5463,10 +5463,10 @@
         <v>20</v>
       </c>
       <c r="C361" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D361" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -5477,10 +5477,10 @@
         <v>20</v>
       </c>
       <c r="C362" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D362" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="363">
@@ -5491,10 +5491,10 @@
         <v>20</v>
       </c>
       <c r="C363" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364">
@@ -5505,10 +5505,10 @@
         <v>20</v>
       </c>
       <c r="C364" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -5519,7 +5519,7 @@
         <v>20</v>
       </c>
       <c r="C365" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D365" t="n">
         <v>2</v>
@@ -5533,7 +5533,7 @@
         <v>20</v>
       </c>
       <c r="C366" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D366" t="n">
         <v>2</v>
@@ -5547,10 +5547,10 @@
         <v>20</v>
       </c>
       <c r="C367" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368">
@@ -5561,7 +5561,7 @@
         <v>20</v>
       </c>
       <c r="C368" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D368" t="n">
         <v>1</v>
@@ -5575,7 +5575,7 @@
         <v>20</v>
       </c>
       <c r="C369" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D369" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         <v>20</v>
       </c>
       <c r="C370" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D370" t="n">
         <v>1</v>
@@ -5603,7 +5603,7 @@
         <v>20</v>
       </c>
       <c r="C371" t="n">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="D371" t="n">
         <v>1</v>
@@ -5614,13 +5614,13 @@
         <v>15</v>
       </c>
       <c r="B372" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="D372" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -5631,10 +5631,10 @@
         <v>21</v>
       </c>
       <c r="C373" t="n">
+        <v>0</v>
+      </c>
+      <c r="D373" t="n">
         <v>3</v>
-      </c>
-      <c r="D373" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -5645,10 +5645,10 @@
         <v>21</v>
       </c>
       <c r="C374" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -5659,7 +5659,7 @@
         <v>21</v>
       </c>
       <c r="C375" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D375" t="n">
         <v>2</v>
@@ -5673,10 +5673,10 @@
         <v>21</v>
       </c>
       <c r="C376" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377">
@@ -5687,7 +5687,7 @@
         <v>21</v>
       </c>
       <c r="C377" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D377" t="n">
         <v>1</v>
@@ -5701,10 +5701,10 @@
         <v>21</v>
       </c>
       <c r="C378" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -5715,10 +5715,10 @@
         <v>21</v>
       </c>
       <c r="C379" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380">
@@ -5729,7 +5729,7 @@
         <v>21</v>
       </c>
       <c r="C380" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D380" t="n">
         <v>1</v>
@@ -5743,7 +5743,7 @@
         <v>21</v>
       </c>
       <c r="C381" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D381" t="n">
         <v>1</v>
@@ -5757,10 +5757,10 @@
         <v>21</v>
       </c>
       <c r="C382" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D382" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -5771,10 +5771,10 @@
         <v>21</v>
       </c>
       <c r="C383" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D383" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="384">
@@ -5785,10 +5785,10 @@
         <v>21</v>
       </c>
       <c r="C384" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D384" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385">
@@ -5799,10 +5799,10 @@
         <v>21</v>
       </c>
       <c r="C385" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D385" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="386">
@@ -5813,10 +5813,10 @@
         <v>21</v>
       </c>
       <c r="C386" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D386" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="387">
@@ -5827,10 +5827,10 @@
         <v>21</v>
       </c>
       <c r="C387" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D387" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="388">
@@ -5841,10 +5841,10 @@
         <v>21</v>
       </c>
       <c r="C388" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D388" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="389">
@@ -5855,10 +5855,10 @@
         <v>21</v>
       </c>
       <c r="C389" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D389" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="390">
@@ -5869,10 +5869,10 @@
         <v>21</v>
       </c>
       <c r="C390" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D390" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="391">
@@ -5883,10 +5883,10 @@
         <v>21</v>
       </c>
       <c r="C391" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D391" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="392">
@@ -5897,10 +5897,10 @@
         <v>21</v>
       </c>
       <c r="C392" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D392" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="393">
@@ -5911,10 +5911,10 @@
         <v>21</v>
       </c>
       <c r="C393" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D393" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="394">
@@ -5925,10 +5925,10 @@
         <v>21</v>
       </c>
       <c r="C394" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D394" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395">
@@ -5939,10 +5939,10 @@
         <v>21</v>
       </c>
       <c r="C395" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D395" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="396">
@@ -5953,10 +5953,10 @@
         <v>21</v>
       </c>
       <c r="C396" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D396" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="397">
@@ -5967,10 +5967,10 @@
         <v>21</v>
       </c>
       <c r="C397" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D397" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="398">
@@ -5981,10 +5981,10 @@
         <v>21</v>
       </c>
       <c r="C398" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D398" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="399">
@@ -5995,10 +5995,10 @@
         <v>21</v>
       </c>
       <c r="C399" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D399" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="400">
@@ -6009,10 +6009,10 @@
         <v>21</v>
       </c>
       <c r="C400" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D400" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="401">
@@ -6023,10 +6023,10 @@
         <v>21</v>
       </c>
       <c r="C401" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D401" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -6037,10 +6037,10 @@
         <v>21</v>
       </c>
       <c r="C402" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D402" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="403">
@@ -6051,10 +6051,10 @@
         <v>21</v>
       </c>
       <c r="C403" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404">
@@ -6065,10 +6065,10 @@
         <v>21</v>
       </c>
       <c r="C404" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D404" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
@@ -6079,10 +6079,10 @@
         <v>21</v>
       </c>
       <c r="C405" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D405" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="406">
@@ -6093,10 +6093,10 @@
         <v>21</v>
       </c>
       <c r="C406" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D406" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -6107,10 +6107,10 @@
         <v>21</v>
       </c>
       <c r="C407" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D407" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="408">
@@ -6121,10 +6121,10 @@
         <v>21</v>
       </c>
       <c r="C408" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D408" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="409">
@@ -6135,10 +6135,10 @@
         <v>21</v>
       </c>
       <c r="C409" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -6149,7 +6149,7 @@
         <v>21</v>
       </c>
       <c r="C410" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D410" t="n">
         <v>2</v>
@@ -6163,10 +6163,10 @@
         <v>21</v>
       </c>
       <c r="C411" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D411" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412">
@@ -6177,7 +6177,7 @@
         <v>21</v>
       </c>
       <c r="C412" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D412" t="n">
         <v>1</v>
@@ -6191,7 +6191,7 @@
         <v>21</v>
       </c>
       <c r="C413" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D413" t="n">
         <v>1</v>
@@ -6205,7 +6205,7 @@
         <v>21</v>
       </c>
       <c r="C414" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D414" t="n">
         <v>1</v>
@@ -6219,7 +6219,7 @@
         <v>21</v>
       </c>
       <c r="C415" t="n">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="D415" t="n">
         <v>1</v>
@@ -6233,7 +6233,7 @@
         <v>21</v>
       </c>
       <c r="C416" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D416" t="n">
         <v>1</v>
@@ -6247,10 +6247,10 @@
         <v>21</v>
       </c>
       <c r="C417" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -6261,10 +6261,10 @@
         <v>21</v>
       </c>
       <c r="C418" t="n">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D418" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419">
@@ -6275,7 +6275,7 @@
         <v>21</v>
       </c>
       <c r="C419" t="n">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D419" t="n">
         <v>1</v>
@@ -6289,7 +6289,7 @@
         <v>21</v>
       </c>
       <c r="C420" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D420" t="n">
         <v>1</v>
@@ -6303,7 +6303,7 @@
         <v>21</v>
       </c>
       <c r="C421" t="n">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D421" t="n">
         <v>1</v>
@@ -6314,13 +6314,13 @@
         <v>15</v>
       </c>
       <c r="B422" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="D422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -6331,10 +6331,10 @@
         <v>22</v>
       </c>
       <c r="C423" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D423" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424">
@@ -6345,10 +6345,10 @@
         <v>22</v>
       </c>
       <c r="C424" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D424" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="425">
@@ -6359,10 +6359,10 @@
         <v>22</v>
       </c>
       <c r="C425" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D425" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="426">
@@ -6373,7 +6373,7 @@
         <v>22</v>
       </c>
       <c r="C426" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D426" t="n">
         <v>1</v>
@@ -6387,7 +6387,7 @@
         <v>22</v>
       </c>
       <c r="C427" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D427" t="n">
         <v>1</v>
@@ -6401,7 +6401,7 @@
         <v>22</v>
       </c>
       <c r="C428" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D428" t="n">
         <v>1</v>
@@ -6415,7 +6415,7 @@
         <v>22</v>
       </c>
       <c r="C429" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D429" t="n">
         <v>1</v>
@@ -6429,10 +6429,10 @@
         <v>22</v>
       </c>
       <c r="C430" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -6443,7 +6443,7 @@
         <v>22</v>
       </c>
       <c r="C431" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D431" t="n">
         <v>2</v>
@@ -6457,10 +6457,10 @@
         <v>22</v>
       </c>
       <c r="C432" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433">
@@ -6471,10 +6471,10 @@
         <v>22</v>
       </c>
       <c r="C433" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -6485,10 +6485,10 @@
         <v>22</v>
       </c>
       <c r="C434" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D434" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435">
@@ -6499,10 +6499,10 @@
         <v>22</v>
       </c>
       <c r="C435" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D435" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -6513,10 +6513,10 @@
         <v>22</v>
       </c>
       <c r="C436" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D436" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -6527,10 +6527,10 @@
         <v>22</v>
       </c>
       <c r="C437" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D437" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -6541,10 +6541,10 @@
         <v>22</v>
       </c>
       <c r="C438" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D438" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="439">
@@ -6555,10 +6555,10 @@
         <v>22</v>
       </c>
       <c r="C439" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D439" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440">
@@ -6569,10 +6569,10 @@
         <v>22</v>
       </c>
       <c r="C440" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D440" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="441">
@@ -6583,10 +6583,10 @@
         <v>22</v>
       </c>
       <c r="C441" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D441" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -6597,10 +6597,10 @@
         <v>22</v>
       </c>
       <c r="C442" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D442" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="443">
@@ -6611,7 +6611,7 @@
         <v>22</v>
       </c>
       <c r="C443" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D443" t="n">
         <v>1</v>
@@ -6625,7 +6625,7 @@
         <v>22</v>
       </c>
       <c r="C444" t="n">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D444" t="n">
         <v>1</v>
@@ -6636,13 +6636,13 @@
         <v>15</v>
       </c>
       <c r="B445" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C445" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D445" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -6653,10 +6653,10 @@
         <v>23</v>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D446" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="447">
@@ -6667,10 +6667,10 @@
         <v>23</v>
       </c>
       <c r="C447" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D447" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -6681,10 +6681,10 @@
         <v>23</v>
       </c>
       <c r="C448" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D448" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="449">
@@ -6695,10 +6695,10 @@
         <v>23</v>
       </c>
       <c r="C449" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D449" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="450">
@@ -6709,10 +6709,10 @@
         <v>23</v>
       </c>
       <c r="C450" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451">
@@ -6723,7 +6723,7 @@
         <v>23</v>
       </c>
       <c r="C451" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D451" t="n">
         <v>1</v>
@@ -6737,7 +6737,7 @@
         <v>23</v>
       </c>
       <c r="C452" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D452" t="n">
         <v>1</v>
@@ -6751,7 +6751,7 @@
         <v>23</v>
       </c>
       <c r="C453" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D453" t="n">
         <v>1</v>
@@ -6765,7 +6765,7 @@
         <v>23</v>
       </c>
       <c r="C454" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D454" t="n">
         <v>1</v>
@@ -6779,10 +6779,10 @@
         <v>23</v>
       </c>
       <c r="C455" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D455" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -6793,10 +6793,10 @@
         <v>23</v>
       </c>
       <c r="C456" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D456" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="457">
@@ -6807,10 +6807,10 @@
         <v>23</v>
       </c>
       <c r="C457" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D457" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458">
@@ -6821,10 +6821,10 @@
         <v>23</v>
       </c>
       <c r="C458" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D458" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="459">
@@ -6835,10 +6835,10 @@
         <v>23</v>
       </c>
       <c r="C459" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -6849,10 +6849,10 @@
         <v>23</v>
       </c>
       <c r="C460" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D460" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461">
@@ -6863,10 +6863,10 @@
         <v>23</v>
       </c>
       <c r="C461" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D461" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="462">
@@ -6877,10 +6877,10 @@
         <v>23</v>
       </c>
       <c r="C462" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D462" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463">
@@ -6891,10 +6891,10 @@
         <v>23</v>
       </c>
       <c r="C463" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D463" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="464">
@@ -6905,10 +6905,10 @@
         <v>23</v>
       </c>
       <c r="C464" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D464" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="465">
@@ -6919,7 +6919,7 @@
         <v>23</v>
       </c>
       <c r="C465" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D465" t="n">
         <v>1</v>
@@ -6933,10 +6933,10 @@
         <v>23</v>
       </c>
       <c r="C466" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D466" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -6947,10 +6947,10 @@
         <v>23</v>
       </c>
       <c r="C467" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D467" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468">
@@ -6961,10 +6961,10 @@
         <v>23</v>
       </c>
       <c r="C468" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D468" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="469">
@@ -6975,10 +6975,10 @@
         <v>23</v>
       </c>
       <c r="C469" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D469" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
@@ -6989,10 +6989,10 @@
         <v>23</v>
       </c>
       <c r="C470" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D470" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471">
@@ -7003,10 +7003,10 @@
         <v>23</v>
       </c>
       <c r="C471" t="n">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="D471" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="472">
@@ -7017,9 +7017,23 @@
         <v>23</v>
       </c>
       <c r="C472" t="n">
+        <v>117</v>
+      </c>
+      <c r="D472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s">
+        <v>15</v>
+      </c>
+      <c r="B473" t="s">
+        <v>23</v>
+      </c>
+      <c r="C473" t="n">
         <v>119</v>
       </c>
-      <c r="D472" t="n">
+      <c r="D473" t="n">
         <v>1</v>
       </c>
     </row>
